--- a/Question/Adobe-Visa-Amazon.xlsx
+++ b/Question/Adobe-Visa-Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F4186-7218-4690-B77C-B84064E34C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FBED41-0B2C-4BE6-99F1-B414882EA289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -2967,7 +2967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3006,8 +3006,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3038,8 +3046,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3145,12 +3158,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3222,9 +3251,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
@@ -4339,7 +4372,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4860,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D212FF3-321D-4A2E-BF16-381CD4891400}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5066,7 +5099,7 @@
       </c>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>703</v>
       </c>
@@ -5085,9 +5118,9 @@
       <c r="F10" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>175</v>
       </c>
@@ -5106,9 +5139,9 @@
       <c r="F11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>176</v>
       </c>
@@ -5127,9 +5160,9 @@
       <c r="F12" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1365</v>
       </c>
@@ -5148,7 +5181,7 @@
       <c r="F13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -5169,7 +5202,7 @@
       <c r="F14" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -5190,7 +5223,7 @@
       <c r="F15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">

--- a/Question/Adobe-Visa-Amazon.xlsx
+++ b/Question/Adobe-Visa-Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FBED41-0B2C-4BE6-99F1-B414882EA289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7A7D5-AD30-4F3E-AE6C-22DE4195C3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -4893,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D212FF3-321D-4A2E-BF16-381CD4891400}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5244,7 +5244,7 @@
       <c r="F16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -5265,7 +5265,7 @@
       <c r="F17" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -5286,7 +5286,7 @@
       <c r="F18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -5307,7 +5307,7 @@
       <c r="F19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -5328,7 +5328,7 @@
       <c r="F20" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
@@ -5349,7 +5349,7 @@
       <c r="F21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">

--- a/Question/Adobe-Visa-Amazon.xlsx
+++ b/Question/Adobe-Visa-Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7A7D5-AD30-4F3E-AE6C-22DE4195C3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C5B9F-2D77-4B3B-8E91-41B92E13A907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -4894,7 +4894,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5370,7 +5370,7 @@
       <c r="F22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -5391,7 +5391,7 @@
       <c r="F23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -5412,7 +5412,7 @@
       <c r="F24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">

--- a/Question/Adobe-Visa-Amazon.xlsx
+++ b/Question/Adobe-Visa-Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C5B9F-2D77-4B3B-8E91-41B92E13A907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41775F89-237B-4AA5-BEC0-DB386BFA0236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
@@ -4893,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D212FF3-321D-4A2E-BF16-381CD4891400}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,7 +5433,7 @@
       <c r="F25" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -5454,7 +5454,7 @@
       <c r="F26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="6"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -5475,7 +5475,7 @@
       <c r="F27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -5496,7 +5496,7 @@
       <c r="F28" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -5517,7 +5517,7 @@
       <c r="F29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -5538,7 +5538,7 @@
       <c r="F30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="6"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">

--- a/Question/Adobe-Visa-Amazon.xlsx
+++ b/Question/Adobe-Visa-Amazon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF0DAB-87F2-46C1-B7D5-94B3D069B3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2817A-AEF3-4B1C-AD63-76CAA3E4DF18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="7500" windowHeight="6000" activeTab="2" xr2:uid="{827696B8-CF71-4236-893F-47974D11C53B}"/>
   </bookViews>
   <sheets>
     <sheet name="Adobe |6 Months|" sheetId="3" r:id="rId1"/>
@@ -3260,79 +3260,7 @@
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFFC000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFFFFFF"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FFFF0000"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3606,6 +3534,18 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFC000"/>
+          </stop>
+        </gradientFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4644,57 +4584,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5EA271A-4CE1-451F-93BF-C3D4E25ABA3C}" name="Table1" displayName="Table1" ref="A1:G79" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5EA271A-4CE1-451F-93BF-C3D4E25ABA3C}" name="Table1" displayName="Table1" ref="A1:G79" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:G79" xr:uid="{93A06303-70B4-4733-B461-0319A120FDD3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G79">
-    <sortCondition sortBy="cellColor" ref="D1:D79" dxfId="41"/>
+    <sortCondition sortBy="cellColor" ref="D1:D79" dxfId="36"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{170DB82A-E20E-4E2F-B912-846EE93BB8CA}" name="Sr.No" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{0A4AFA4D-A2C5-48AB-AAEE-30B7C2A979C8}" name="Name" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{F23A6C08-209A-4723-A1CA-14F9127E10F1}" name="Acceptance" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{ADA98629-5700-4AE3-96A6-28624EF9F824}" name="Difficulties" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{A178F3BB-805A-4238-9F94-28EE0564FA84}" name="Frequency" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{EC0D2E85-2B56-4C97-9512-95AA9AF0D397}" name="Url" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{C0D6A515-8B53-455B-B047-FBC5D4EB4AE0}" name="Status" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{170DB82A-E20E-4E2F-B912-846EE93BB8CA}" name="Sr.No" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{0A4AFA4D-A2C5-48AB-AAEE-30B7C2A979C8}" name="Name" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F23A6C08-209A-4723-A1CA-14F9127E10F1}" name="Acceptance" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{ADA98629-5700-4AE3-96A6-28624EF9F824}" name="Difficulties" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{A178F3BB-805A-4238-9F94-28EE0564FA84}" name="Frequency" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{EC0D2E85-2B56-4C97-9512-95AA9AF0D397}" name="Url" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{C0D6A515-8B53-455B-B047-FBC5D4EB4AE0}" name="Status" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA9A13BA-E7C7-4225-B0B7-3FFB5B1B24DC}" name="Table2" displayName="Table2" ref="A1:G40" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA9A13BA-E7C7-4225-B0B7-3FFB5B1B24DC}" name="Table2" displayName="Table2" ref="A1:G40" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A1:G40" xr:uid="{249BABC4-BEC4-463B-AC8E-5F386A2F7AFD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G40">
-    <sortCondition sortBy="cellColor" ref="D1:D40" dxfId="25"/>
+    <sortCondition sortBy="cellColor" ref="D1:D40" dxfId="20"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{819D3A13-B2FF-49A2-A963-DA74D5F9A5EC}" name="Sr.No" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{2FA87520-E502-49C3-99F9-FA8C8127A421}" name="Name" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{32625E6D-59FB-4064-AA47-D061260410CD}" name="Acceptance" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{F045A999-6187-40A1-9B15-7C1CB7B10325}" name="Difficulties" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{BD869E3D-C640-42E9-99FC-08D223FA4174}" name="Frequency" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E237AD3F-0B6B-4E2D-A549-11FE851E5DAC}" name="Url" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{7FC664F7-D8A9-403F-9A39-7533B55FD3E6}" name="Status" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{819D3A13-B2FF-49A2-A963-DA74D5F9A5EC}" name="Sr.No" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{2FA87520-E502-49C3-99F9-FA8C8127A421}" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{32625E6D-59FB-4064-AA47-D061260410CD}" name="Acceptance" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{F045A999-6187-40A1-9B15-7C1CB7B10325}" name="Difficulties" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{BD869E3D-C640-42E9-99FC-08D223FA4174}" name="Frequency" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E237AD3F-0B6B-4E2D-A549-11FE851E5DAC}" name="Url" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{7FC664F7-D8A9-403F-9A39-7533B55FD3E6}" name="Status" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9EF7EFC7-C311-40E8-A1A1-F42D8D572E3F}" name="Table4" displayName="Table4" ref="A1:G467" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9EF7EFC7-C311-40E8-A1A1-F42D8D572E3F}" name="Table4" displayName="Table4" ref="A1:G467" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:G467" xr:uid="{0AA2D968-164D-468A-9909-C1C896D3673A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G467">
-    <sortCondition sortBy="cellColor" ref="D1:D467" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="D1:D467" dxfId="7"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9B2BC1F8-38BC-4326-9101-83B5DF0365CB}" name="Sr.No" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{4FED707A-5C57-4FB8-B3F6-94152EE6BFF1}" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9932C4AB-DE8B-4CFB-876B-FA710EB016D2}" name="Acceptance" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0FFC5485-AF4F-431B-85B8-81648AFDFBC5}" name="Difficulties" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{CA6EB4D6-A320-4B41-A517-57BE0C46B046}" name="Frequency" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{A4D7F46F-4531-4CD0-96DE-301B086E6509}" name="Url" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EDCAF736-895E-4E41-99B7-0E64304AD4E0}" name="Status" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{9B2BC1F8-38BC-4326-9101-83B5DF0365CB}" name="Sr.No" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4FED707A-5C57-4FB8-B3F6-94152EE6BFF1}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9932C4AB-DE8B-4CFB-876B-FA710EB016D2}" name="Acceptance" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0FFC5485-AF4F-431B-85B8-81648AFDFBC5}" name="Difficulties" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CA6EB4D6-A320-4B41-A517-57BE0C46B046}" name="Frequency" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A4D7F46F-4531-4CD0-96DE-301B086E6509}" name="Url" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{EDCAF736-895E-4E41-99B7-0E64304AD4E0}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6672,13 +6612,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="40" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="39" priority="4" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7639,13 +7579,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7694,8 +7634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC650FA5-107C-43BA-80C4-789DF1BB7667}">
   <dimension ref="A1:G467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F467" sqref="F467"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17560,13 +17500,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
